--- a/ValueSet-vs-hiv-symptoms.xlsx
+++ b/ValueSet-vs-hiv-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T18:45:36+00:00</t>
+    <t>2022-01-16T18:50:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-symptoms.xlsx
+++ b/ValueSet-vs-hiv-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T18:50:07+00:00</t>
+    <t>2022-01-16T18:51:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-symptoms.xlsx
+++ b/ValueSet-vs-hiv-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T18:51:47+00:00</t>
+    <t>2022-01-16T19:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-symptoms.xlsx
+++ b/ValueSet-vs-hiv-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T19:00:02+00:00</t>
+    <t>2022-01-16T19:22:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-symptoms.xlsx
+++ b/ValueSet-vs-hiv-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T19:22:42+00:00</t>
+    <t>2022-02-25T20:09:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-symptoms.xlsx
+++ b/ValueSet-vs-hiv-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:09:43+00:00</t>
+    <t>2022-02-25T20:11:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-symptoms.xlsx
+++ b/ValueSet-vs-hiv-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:11:49+00:00</t>
+    <t>2022-02-25T20:13:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-symptoms.xlsx
+++ b/ValueSet-vs-hiv-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:13:21+00:00</t>
+    <t>2022-02-25T20:43:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-symptoms.xlsx
+++ b/ValueSet-vs-hiv-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:43:03+00:00</t>
+    <t>2022-02-25T20:52:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-symptoms.xlsx
+++ b/ValueSet-vs-hiv-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:52:14+00:00</t>
+    <t>2022-02-25T20:59:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-symptoms.xlsx
+++ b/ValueSet-vs-hiv-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:59:17+00:00</t>
+    <t>2022-02-25T21:00:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-symptoms.xlsx
+++ b/ValueSet-vs-hiv-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T21:00:17+00:00</t>
+    <t>2022-02-25T21:34:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-symptoms.xlsx
+++ b/ValueSet-vs-hiv-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-02T07:06:01+00:00</t>
+    <t>2022-03-02T18:06:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-symptoms.xlsx
+++ b/ValueSet-vs-hiv-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-02T18:06:48+00:00</t>
+    <t>2022-03-04T08:28:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-symptoms.xlsx
+++ b/ValueSet-vs-hiv-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T08:28:51+00:00</t>
+    <t>2022-03-04T08:37:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-symptoms.xlsx
+++ b/ValueSet-vs-hiv-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T08:37:21+00:00</t>
+    <t>2022-03-08T06:55:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-symptoms.xlsx
+++ b/ValueSet-vs-hiv-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T08:06:35+00:00</t>
+    <t>2022-03-25T09:06:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-symptoms.xlsx
+++ b/ValueSet-vs-hiv-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T09:06:52+00:00</t>
+    <t>2022-03-29T15:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
